--- a/medicine/Enfance/La_Villa_d'en_face/La_Villa_d'en_face.xlsx
+++ b/medicine/Enfance/La_Villa_d'en_face/La_Villa_d'en_face.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Villa_d%27en_face</t>
+          <t>La_Villa_d'en_face</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Villa d'en face est un roman policier pour la jeunesse de Boileau-Narcejac, paru en 1991. Il fait référence au film fenêtre sur cour.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Villa_d%27en_face</t>
+          <t>La_Villa_d'en_face</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Philippe : un jeune garçon malade.  Il est passionné par la ville.
 Claudette : sœur de Philippe. Elle est passionnée par la télévision.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Villa_d%27en_face</t>
+          <t>La_Villa_d'en_face</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le père des enfants est capitaine au long cours, il est absent durant toute l'action du roman. Leur mère est partie chez leur grand-mère, on ne la verra pas non plus. Les enfants se retrouvent donc seuls.
 Philippe ne va pas à l'école ; il souffre d'une bronchite. Claudette apprend au journal télévisé qu'il y a eu un braquage à la banque de Vichy. Profitant de l'absence de leurs parents, les enfants vont enquêter.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Villa_d%27en_face</t>
+          <t>La_Villa_d'en_face</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le titre est considéré comme un classique par le Ministère de l'Éducation nationale dans la liste de références pour la littérature à l'école publiée pour le cycle 3[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le titre est considéré comme un classique par le Ministère de l'Éducation nationale dans la liste de références pour la littérature à l'école publiée pour le cycle 3.
 </t>
         </is>
       </c>
